--- a/results/ROI_greedy/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.7555555555555555</v>
+        <v>0.7130434782608696</v>
       </c>
       <c r="O2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="P2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>1.353859085366737</v>
+        <v>1.412962608202052</v>
       </c>
       <c r="R2">
-        <v>71.36862298776337</v>
+        <v>62.72038349652408</v>
       </c>
       <c r="S2">
-        <v>3.872340425531915</v>
+        <v>4.108108108108108</v>
       </c>
       <c r="T2">
-        <v>5.857142857142857</v>
+        <v>6.125</v>
       </c>
       <c r="U2">
-        <v>1.767661917648994</v>
+        <v>1.812378756430791</v>
       </c>
       <c r="V2">
-        <v>64.87909972937112</v>
+        <v>53.00193989710735</v>
       </c>
       <c r="W2">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="X2">
         <v>841</v>
       </c>
       <c r="Y2">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="Z2">
-        <v>1.046742209631728</v>
+        <v>1.045454545454545</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.9056603773584906</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="O3">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>1.137833001821391</v>
+        <v>1.186317869087215</v>
       </c>
       <c r="R3">
-        <v>49.10834990893044</v>
+        <v>43.54728523651139</v>
       </c>
       <c r="S3">
-        <v>3.12</v>
+        <v>3.275</v>
       </c>
       <c r="T3">
-        <v>3.341463414634146</v>
+        <v>3.612903225806452</v>
       </c>
       <c r="U3">
-        <v>1.206408859123817</v>
+        <v>1.284511666809948</v>
       </c>
       <c r="V3">
-        <v>46.5372367759235</v>
+        <v>41.1801383288916</v>
       </c>
       <c r="W3">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="X3">
         <v>918</v>
       </c>
       <c r="Y3">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="Z3">
-        <v>1.012315270935961</v>
+        <v>1.012091898428053</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.9016393442622951</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="O4">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="P4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1.132513840343791</v>
+        <v>1.074071179751992</v>
       </c>
       <c r="R4">
-        <v>56.31419726006011</v>
+        <v>46.92608511364043</v>
       </c>
       <c r="S4">
-        <v>3.103448275862069</v>
+        <v>2.927272727272727</v>
       </c>
       <c r="T4">
-        <v>5.230769230769231</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="U4">
-        <v>1.65455834771457</v>
+        <v>1.837016060816176</v>
       </c>
       <c r="V4">
-        <v>66.98148295942119</v>
+        <v>61.93371090530884</v>
       </c>
       <c r="W4">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="X4">
         <v>827</v>
       </c>
       <c r="Y4">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="Z4">
-        <v>1.017021276595745</v>
+        <v>1.015256588072122</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.8193548387096774</v>
+        <v>0.816793893129771</v>
       </c>
       <c r="O5">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>1.66875448959052</v>
+        <v>1.680206983322307</v>
       </c>
       <c r="R5">
-        <v>94.92483837474128</v>
+        <v>80.59379050033078</v>
       </c>
       <c r="S5">
-        <v>5.305555555555555</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="T5">
-        <v>7.047619047619047</v>
+        <v>8.642857142857142</v>
       </c>
       <c r="U5">
-        <v>1.952689836040692</v>
+        <v>2.156733215981482</v>
       </c>
       <c r="V5">
-        <v>85.99351344314547</v>
+        <v>76.80573497625925</v>
       </c>
       <c r="W5">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="X5">
         <v>951</v>
       </c>
       <c r="Y5">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="Z5">
-        <v>1.035175879396985</v>
+        <v>1.029268292682927</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>0.08</v>
+      </c>
+      <c r="K6">
+        <v>96</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.08</v>
+      </c>
+      <c r="N6">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="O6">
         <v>130</v>
       </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>101</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
-      <c r="K6">
-        <v>111</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-      <c r="N6">
-        <v>0.9099099099099099</v>
-      </c>
-      <c r="O6">
-        <v>153</v>
-      </c>
       <c r="P6">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>1.292768303109067</v>
+        <v>1.341173925839421</v>
       </c>
       <c r="R6">
-        <v>56.70373126941918</v>
+        <v>50.40008652145968</v>
       </c>
       <c r="S6">
-        <v>3.642857142857143</v>
+        <v>3.823529411764706</v>
       </c>
       <c r="T6">
-        <v>4.482758620689655</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="U6">
-        <v>1.500238620469108</v>
+        <v>1.771956841931875</v>
       </c>
       <c r="V6">
-        <v>57.49308000639586</v>
+        <v>52.87673368715812</v>
       </c>
       <c r="W6">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="X6">
         <v>799</v>
       </c>
       <c r="Y6">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="Z6">
-        <v>1.01453488372093</v>
+        <v>1.018492176386913</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.976</v>
+        <v>0.990909090909091</v>
       </c>
       <c r="O7">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q7">
-        <v>1.345709081004812</v>
+        <v>1.340384659815813</v>
       </c>
       <c r="R7">
-        <v>65.78880043578826</v>
+        <v>57.7249982671833</v>
       </c>
       <c r="S7">
-        <v>3.840909090909091</v>
+        <v>3.820512820512821</v>
       </c>
       <c r="T7">
-        <v>4.210526315789473</v>
+        <v>4.892857142857143</v>
       </c>
       <c r="U7">
-        <v>1.437587655507441</v>
+        <v>1.587776415652921</v>
       </c>
       <c r="V7">
-        <v>67.37166909071723</v>
+        <v>64.54226036171821</v>
       </c>
       <c r="W7">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="X7">
         <v>919</v>
       </c>
       <c r="Y7">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="Z7">
-        <v>1.003778337531486</v>
+        <v>1.00123609394314</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.6829268292682927</v>
+        <v>0.6546762589928058</v>
       </c>
       <c r="O8">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="P8">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>1.009664802651614</v>
+        <v>1.42529651892316</v>
       </c>
       <c r="R8">
-        <v>69.09150855074833</v>
+        <v>76.28695316738097</v>
       </c>
       <c r="S8">
-        <v>2.74468085106383</v>
+        <v>4.159090909090909</v>
       </c>
       <c r="T8">
-        <v>6.333333333333333</v>
+        <v>6.6875</v>
       </c>
       <c r="U8">
-        <v>1.845826690498331</v>
+        <v>1.900240112222125</v>
       </c>
       <c r="V8">
-        <v>73.23763949953505</v>
+        <v>60.596158204446</v>
       </c>
       <c r="W8">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="X8">
         <v>1124</v>
       </c>
       <c r="Y8">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="Z8">
-        <v>1.054166666666667</v>
+        <v>1.048730964467005</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.7985074626865671</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="O9">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="P9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q9">
-        <v>1.332805676168904</v>
+        <v>1.425008873300581</v>
       </c>
       <c r="R9">
-        <v>70.02532754389259</v>
+        <v>65.84966281457793</v>
       </c>
       <c r="S9">
-        <v>3.791666666666667</v>
+        <v>4.157894736842105</v>
       </c>
       <c r="T9">
-        <v>5.28</v>
+        <v>5.7</v>
       </c>
       <c r="U9">
-        <v>1.66392609771817</v>
+        <v>1.740466174840505</v>
       </c>
       <c r="V9">
-        <v>65.40184755704574</v>
+        <v>59.19067650318991</v>
       </c>
       <c r="W9">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="X9">
         <v>790</v>
       </c>
       <c r="Y9">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="Z9">
-        <v>1.041158536585366</v>
+        <v>1.038805970149254</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.9819819819819819</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="O10">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q10">
-        <v>1.328400382700988</v>
+        <v>1.419084183942882</v>
       </c>
       <c r="R10">
-        <v>57.86398469196048</v>
+        <v>51.42747448171355</v>
       </c>
       <c r="S10">
-        <v>3.775</v>
+        <v>4.133333333333334</v>
       </c>
       <c r="T10">
-        <v>4.516129032258065</v>
+        <v>4.956521739130435</v>
       </c>
       <c r="U10">
-        <v>1.507655218124158</v>
+        <v>1.600704232465346</v>
       </c>
       <c r="V10">
-        <v>62.26268823815109</v>
+        <v>54.18380265329705</v>
       </c>
       <c r="W10">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="X10">
         <v>907</v>
       </c>
       <c r="Y10">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="Z10">
-        <v>1.00251256281407</v>
+        <v>1.003690036900369</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9908256880733946</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="O11">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="P11">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q11">
-        <v>1.246248287474174</v>
+        <v>1.291678384745041</v>
       </c>
       <c r="R11">
-        <v>54.16507535113633</v>
+        <v>48.4995781491785</v>
       </c>
       <c r="S11">
-        <v>3.477272727272727</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="T11">
-        <v>3.918918918918919</v>
+        <v>4.37037037037037</v>
       </c>
       <c r="U11">
-        <v>1.36581582977635</v>
+        <v>1.474847758461336</v>
       </c>
       <c r="V11">
-        <v>57.46481429827506</v>
+        <v>51.17911052154393</v>
       </c>
       <c r="W11">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="X11">
         <v>800</v>
       </c>
       <c r="Y11">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="Z11">
-        <v>1.001447178002894</v>
+        <v>1.005673758865248</v>
       </c>
     </row>
   </sheetData>
